--- a/재단내공통업무및단위업무정리.xlsx
+++ b/재단내공통업무및단위업무정리.xlsx
@@ -18,14 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
-    <t>공통사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위업무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,12 +233,20 @@
     <t>문예진흥팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>공통업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +268,15 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -298,12 +307,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,299 +617,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="2:3">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="18" spans="2:3">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:3">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:3">
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="21" spans="2:3">
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:3">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="2:3">
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="2:3">
+      <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
+    <row r="27" spans="2:3">
+      <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
+    <row r="28" spans="2:3">
+      <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
+    <row r="29" spans="2:3">
+      <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
+    <row r="30" spans="2:3">
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
+    <row r="31" spans="2:3">
+      <c r="C31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:3">
+      <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="34" spans="3:3">
+      <c r="C34" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="39" spans="3:3">
+      <c r="C39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="3:3">
+      <c r="C42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="43" spans="3:3">
+      <c r="C43" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="44" spans="3:3">
+      <c r="C44" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="45" spans="3:3">
+      <c r="C45" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:3">
+      <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
+    <row r="50" spans="2:3">
+      <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
+    <row r="51" spans="2:3">
+      <c r="C51" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:3">
+      <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
+    <row r="53" spans="2:3">
+      <c r="C53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
+    <row r="55" spans="2:3">
+      <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
